--- a/assets/templates/template_data_siswa.xlsx
+++ b/assets/templates/template_data_siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data Aplikasi\xampp\htdocs\Raport\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2323667-5D16-433C-B269-0A023D67B892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A79A70-E723-4082-9397-6CD07B2E7F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>NISN</t>
-  </si>
-  <si>
     <t>Kelas</t>
   </si>
   <si>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t>Absen</t>
+  </si>
+  <si>
+    <t>NIS</t>
   </si>
 </sst>
 </file>
@@ -105,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -114,6 +114,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,30 +427,33 @@
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/assets/templates/template_data_siswa.xlsx
+++ b/assets/templates/template_data_siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data Aplikasi\xampp\htdocs\Raport\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A79A70-E723-4082-9397-6CD07B2E7F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3F9757-E794-47BD-BA2F-F3F14519A0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,14 +427,14 @@
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="5"/>
     <col min="5" max="5" width="9.140625" style="4"/>
   </cols>
